--- a/sending_mail/subscribe.xlsx
+++ b/sending_mail/subscribe.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>user</t>
   </si>
@@ -28,10 +28,7 @@
     <t>전예나</t>
   </si>
   <si>
-    <t>22222</t>
-  </si>
-  <si>
-    <t>5000</t>
+    <t>12011425</t>
   </si>
   <si>
     <t>ynjo8531@gmail.com</t>
@@ -392,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,21 +417,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
         <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
